--- a/Base de datos/Base de datos Actividades y Emisiones.xlsx
+++ b/Base de datos/Base de datos Actividades y Emisiones.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edison Ortiz\OneDrive\ENECALC_APP\Base de datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\App-Energia-master\App-Energia-master\Base de datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6552" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="7488" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actividades" sheetId="1" r:id="rId1"/>
@@ -17,15 +17,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Actividades!$A$1:$P$442</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Factores!$A$1:$Q$162</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Factores!$A$1:$Q$165</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4957" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5125" uniqueCount="194">
   <si>
     <t>REGION</t>
   </si>
@@ -721,6 +720,9 @@
   <si>
     <t>F.E. EMISIONES POR PRODUCCION DE DICLORURO DE ETILENO</t>
   </si>
+  <si>
+    <t>Diésel Marino</t>
+  </si>
 </sst>
 </file>
 
@@ -787,7 +789,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -810,12 +812,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -833,6 +846,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1182,10 +1196,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P442"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:P460"/>
   <sheetViews>
-    <sheetView topLeftCell="A181" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="N201" sqref="N201"/>
+    <sheetView topLeftCell="H1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="K454" sqref="K454"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1247,7 +1262,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1285,7 +1300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>16</v>
       </c>
@@ -1323,7 +1338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1361,7 +1376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1399,7 +1414,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -1437,7 +1452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -1475,7 +1490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1513,7 +1528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1551,7 +1566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
@@ -1589,7 +1604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1627,7 +1642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>
@@ -1665,7 +1680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -1703,7 +1718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>16</v>
       </c>
@@ -1741,7 +1756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -1779,7 +1794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1817,7 +1832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1855,7 +1870,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1893,7 +1908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -1931,7 +1946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1969,7 +1984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -2007,7 +2022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -2045,7 +2060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -2083,7 +2098,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -2121,7 +2136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -2159,7 +2174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -2197,7 +2212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -2235,7 +2250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -2273,7 +2288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -2311,7 +2326,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -2349,7 +2364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -2387,7 +2402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -2425,7 +2440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -2463,7 +2478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>16</v>
       </c>
@@ -2501,7 +2516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>16</v>
       </c>
@@ -2539,7 +2554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>16</v>
       </c>
@@ -2577,7 +2592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -2615,7 +2630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -2653,7 +2668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -2691,7 +2706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -2729,7 +2744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -2767,7 +2782,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>16</v>
       </c>
@@ -2805,7 +2820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -2843,7 +2858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>16</v>
       </c>
@@ -2881,7 +2896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>16</v>
       </c>
@@ -2919,7 +2934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>16</v>
       </c>
@@ -2957,7 +2972,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>16</v>
       </c>
@@ -2995,7 +3010,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>16</v>
       </c>
@@ -3033,7 +3048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>16</v>
       </c>
@@ -3071,7 +3086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>16</v>
       </c>
@@ -3109,7 +3124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>16</v>
       </c>
@@ -3147,7 +3162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -3185,7 +3200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>16</v>
       </c>
@@ -3223,7 +3238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>16</v>
       </c>
@@ -3261,7 +3276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -3299,7 +3314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>16</v>
       </c>
@@ -3337,7 +3352,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>16</v>
       </c>
@@ -3375,7 +3390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -3413,7 +3428,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>16</v>
       </c>
@@ -3451,7 +3466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>16</v>
       </c>
@@ -3489,7 +3504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>16</v>
       </c>
@@ -3527,7 +3542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>16</v>
       </c>
@@ -3565,7 +3580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>16</v>
       </c>
@@ -3603,7 +3618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>16</v>
       </c>
@@ -3641,7 +3656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -3679,7 +3694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -3717,7 +3732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -3755,7 +3770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -3793,7 +3808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -3831,7 +3846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>16</v>
       </c>
@@ -3869,7 +3884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>16</v>
       </c>
@@ -3907,7 +3922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>16</v>
       </c>
@@ -3945,7 +3960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>16</v>
       </c>
@@ -3983,7 +3998,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>16</v>
       </c>
@@ -4021,7 +4036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>16</v>
       </c>
@@ -4059,7 +4074,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>16</v>
       </c>
@@ -4097,7 +4112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -4135,7 +4150,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>16</v>
       </c>
@@ -4173,7 +4188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>16</v>
       </c>
@@ -4211,7 +4226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>16</v>
       </c>
@@ -4249,7 +4264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>16</v>
       </c>
@@ -4287,7 +4302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>16</v>
       </c>
@@ -4325,7 +4340,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>16</v>
       </c>
@@ -4363,7 +4378,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>16</v>
       </c>
@@ -4401,7 +4416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>16</v>
       </c>
@@ -4439,7 +4454,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>16</v>
       </c>
@@ -4477,7 +4492,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>16</v>
       </c>
@@ -4515,7 +4530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>16</v>
       </c>
@@ -4553,7 +4568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>16</v>
       </c>
@@ -4591,7 +4606,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>16</v>
       </c>
@@ -4629,7 +4644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>16</v>
       </c>
@@ -4667,7 +4682,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>16</v>
       </c>
@@ -4705,7 +4720,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>16</v>
       </c>
@@ -4743,7 +4758,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>16</v>
       </c>
@@ -4781,7 +4796,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>16</v>
       </c>
@@ -4819,7 +4834,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>16</v>
       </c>
@@ -4857,7 +4872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>16</v>
       </c>
@@ -4895,7 +4910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>16</v>
       </c>
@@ -4933,7 +4948,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>16</v>
       </c>
@@ -4971,7 +4986,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>16</v>
       </c>
@@ -5009,7 +5024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>16</v>
       </c>
@@ -5047,7 +5062,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>16</v>
       </c>
@@ -5085,7 +5100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>16</v>
       </c>
@@ -5123,7 +5138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>16</v>
       </c>
@@ -5161,7 +5176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>16</v>
       </c>
@@ -5199,7 +5214,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>16</v>
       </c>
@@ -5237,7 +5252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>16</v>
       </c>
@@ -5275,7 +5290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>16</v>
       </c>
@@ -5313,7 +5328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>16</v>
       </c>
@@ -5351,7 +5366,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>16</v>
       </c>
@@ -5389,7 +5404,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>16</v>
       </c>
@@ -5427,7 +5442,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>16</v>
       </c>
@@ -5465,7 +5480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>16</v>
       </c>
@@ -5503,7 +5518,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>16</v>
       </c>
@@ -5541,7 +5556,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>16</v>
       </c>
@@ -5579,7 +5594,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>16</v>
       </c>
@@ -5617,7 +5632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>16</v>
       </c>
@@ -5655,7 +5670,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>16</v>
       </c>
@@ -5693,7 +5708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>16</v>
       </c>
@@ -5731,7 +5746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>16</v>
       </c>
@@ -5769,7 +5784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>16</v>
       </c>
@@ -5807,7 +5822,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>16</v>
       </c>
@@ -5845,7 +5860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>16</v>
       </c>
@@ -5883,7 +5898,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:15" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>16</v>
       </c>
@@ -5921,7 +5936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>16</v>
       </c>
@@ -5953,7 +5968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>16</v>
       </c>
@@ -5985,7 +6000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>16</v>
       </c>
@@ -6017,7 +6032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>16</v>
       </c>
@@ -6049,7 +6064,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>16</v>
       </c>
@@ -6081,7 +6096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>16</v>
       </c>
@@ -6113,7 +6128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>16</v>
       </c>
@@ -6145,7 +6160,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>16</v>
       </c>
@@ -6177,7 +6192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>16</v>
       </c>
@@ -6209,7 +6224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>16</v>
       </c>
@@ -6247,7 +6262,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>16</v>
       </c>
@@ -6285,7 +6300,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>16</v>
       </c>
@@ -6323,7 +6338,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>16</v>
       </c>
@@ -6361,7 +6376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>16</v>
       </c>
@@ -6383,6 +6398,9 @@
       <c r="J138" t="s">
         <v>24</v>
       </c>
+      <c r="K138">
+        <v>13257.83</v>
+      </c>
       <c r="L138" t="s">
         <v>21</v>
       </c>
@@ -6418,6 +6436,9 @@
       <c r="J139" t="s">
         <v>32</v>
       </c>
+      <c r="K139">
+        <v>111.7</v>
+      </c>
       <c r="L139" t="s">
         <v>21</v>
       </c>
@@ -6431,7 +6452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>16</v>
       </c>
@@ -6469,7 +6490,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>16</v>
       </c>
@@ -6507,7 +6528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>16</v>
       </c>
@@ -6545,7 +6566,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>16</v>
       </c>
@@ -6583,7 +6604,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>16</v>
       </c>
@@ -6605,6 +6626,9 @@
       <c r="J144" t="s">
         <v>24</v>
       </c>
+      <c r="K144">
+        <v>13353.14</v>
+      </c>
       <c r="L144" t="s">
         <v>21</v>
       </c>
@@ -6640,6 +6664,9 @@
       <c r="J145" t="s">
         <v>32</v>
       </c>
+      <c r="K145">
+        <v>107.94</v>
+      </c>
       <c r="L145" t="s">
         <v>21</v>
       </c>
@@ -6653,7 +6680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>16</v>
       </c>
@@ -6691,7 +6718,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>16</v>
       </c>
@@ -6729,7 +6756,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>16</v>
       </c>
@@ -6767,7 +6794,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>16</v>
       </c>
@@ -6805,7 +6832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>16</v>
       </c>
@@ -6827,6 +6854,9 @@
       <c r="J150" t="s">
         <v>24</v>
       </c>
+      <c r="K150">
+        <v>15205.89</v>
+      </c>
       <c r="L150" t="s">
         <v>21</v>
       </c>
@@ -6862,6 +6892,9 @@
       <c r="J151" t="s">
         <v>32</v>
       </c>
+      <c r="K151">
+        <v>106.56</v>
+      </c>
       <c r="L151" t="s">
         <v>21</v>
       </c>
@@ -6875,7 +6908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>16</v>
       </c>
@@ -6913,7 +6946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>16</v>
       </c>
@@ -6951,7 +6984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>16</v>
       </c>
@@ -6989,7 +7022,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>16</v>
       </c>
@@ -7027,7 +7060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>16</v>
       </c>
@@ -7049,6 +7082,9 @@
       <c r="J156" t="s">
         <v>24</v>
       </c>
+      <c r="K156">
+        <v>14050.99</v>
+      </c>
       <c r="L156" t="s">
         <v>21</v>
       </c>
@@ -7084,6 +7120,9 @@
       <c r="J157" t="s">
         <v>32</v>
       </c>
+      <c r="K157">
+        <v>92.14</v>
+      </c>
       <c r="L157" t="s">
         <v>21</v>
       </c>
@@ -7097,7 +7136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>16</v>
       </c>
@@ -7135,7 +7174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>16</v>
       </c>
@@ -7173,7 +7212,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>16</v>
       </c>
@@ -7211,7 +7250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>16</v>
       </c>
@@ -7249,7 +7288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>16</v>
       </c>
@@ -7271,6 +7310,9 @@
       <c r="J162" t="s">
         <v>24</v>
       </c>
+      <c r="K162">
+        <v>15794.84</v>
+      </c>
       <c r="L162" t="s">
         <v>21</v>
       </c>
@@ -7306,6 +7348,9 @@
       <c r="J163" t="s">
         <v>32</v>
       </c>
+      <c r="K163">
+        <v>83.25</v>
+      </c>
       <c r="L163" t="s">
         <v>21</v>
       </c>
@@ -7319,7 +7364,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>16</v>
       </c>
@@ -7357,7 +7402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>16</v>
       </c>
@@ -7395,7 +7440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>16</v>
       </c>
@@ -7433,7 +7478,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>16</v>
       </c>
@@ -7471,7 +7516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>16</v>
       </c>
@@ -7493,6 +7538,9 @@
       <c r="J168" t="s">
         <v>24</v>
       </c>
+      <c r="K168">
+        <v>16640.330000000002</v>
+      </c>
       <c r="L168" t="s">
         <v>21</v>
       </c>
@@ -7528,6 +7576,9 @@
       <c r="J169" t="s">
         <v>32</v>
       </c>
+      <c r="K169">
+        <v>82.81</v>
+      </c>
       <c r="L169" t="s">
         <v>21</v>
       </c>
@@ -7541,7 +7592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>16</v>
       </c>
@@ -7579,7 +7630,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>16</v>
       </c>
@@ -7617,7 +7668,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>16</v>
       </c>
@@ -7655,7 +7706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>16</v>
       </c>
@@ -7693,7 +7744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>16</v>
       </c>
@@ -7715,6 +7766,9 @@
       <c r="J174" t="s">
         <v>24</v>
       </c>
+      <c r="K174">
+        <v>15671.1</v>
+      </c>
       <c r="L174" t="s">
         <v>21</v>
       </c>
@@ -7750,6 +7804,9 @@
       <c r="J175" t="s">
         <v>32</v>
       </c>
+      <c r="K175">
+        <v>65.650000000000006</v>
+      </c>
       <c r="L175" t="s">
         <v>21</v>
       </c>
@@ -7763,7 +7820,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>16</v>
       </c>
@@ -7801,7 +7858,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>16</v>
       </c>
@@ -7839,7 +7896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>16</v>
       </c>
@@ -7877,7 +7934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>16</v>
       </c>
@@ -7915,7 +7972,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>16</v>
       </c>
@@ -7937,6 +7994,9 @@
       <c r="J180" t="s">
         <v>24</v>
       </c>
+      <c r="K180">
+        <v>14888.99</v>
+      </c>
       <c r="L180" t="s">
         <v>21</v>
       </c>
@@ -7972,6 +8032,9 @@
       <c r="J181" t="s">
         <v>32</v>
       </c>
+      <c r="K181">
+        <v>48.43</v>
+      </c>
       <c r="L181" t="s">
         <v>21</v>
       </c>
@@ -7985,7 +8048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>16</v>
       </c>
@@ -8023,7 +8086,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>16</v>
       </c>
@@ -8061,7 +8124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>16</v>
       </c>
@@ -8099,7 +8162,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>16</v>
       </c>
@@ -8137,7 +8200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>16</v>
       </c>
@@ -8159,6 +8222,9 @@
       <c r="J186" t="s">
         <v>24</v>
       </c>
+      <c r="K186">
+        <v>14336.47</v>
+      </c>
       <c r="L186" t="s">
         <v>21</v>
       </c>
@@ -8194,6 +8260,9 @@
       <c r="J187" t="s">
         <v>32</v>
       </c>
+      <c r="K187">
+        <v>34.07</v>
+      </c>
       <c r="L187" t="s">
         <v>21</v>
       </c>
@@ -8207,7 +8276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>16</v>
       </c>
@@ -8245,7 +8314,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>16</v>
       </c>
@@ -8283,7 +8352,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>16</v>
       </c>
@@ -8321,7 +8390,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>16</v>
       </c>
@@ -8359,7 +8428,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>16</v>
       </c>
@@ -8397,7 +8466,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>16</v>
       </c>
@@ -8435,7 +8504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>16</v>
       </c>
@@ -8473,7 +8542,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>16</v>
       </c>
@@ -8511,7 +8580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>16</v>
       </c>
@@ -8549,7 +8618,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>16</v>
       </c>
@@ -8587,7 +8656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>16</v>
       </c>
@@ -8625,7 +8694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>16</v>
       </c>
@@ -8663,7 +8732,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>16</v>
       </c>
@@ -8701,7 +8770,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>16</v>
       </c>
@@ -8739,7 +8808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>16</v>
       </c>
@@ -8777,7 +8846,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>16</v>
       </c>
@@ -8815,7 +8884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>16</v>
       </c>
@@ -8853,7 +8922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>16</v>
       </c>
@@ -8891,7 +8960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>41</v>
       </c>
@@ -8923,7 +8992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>41</v>
       </c>
@@ -8955,7 +9024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>41</v>
       </c>
@@ -8987,7 +9056,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>41</v>
       </c>
@@ -9019,7 +9088,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>41</v>
       </c>
@@ -9051,7 +9120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>41</v>
       </c>
@@ -9083,7 +9152,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>41</v>
       </c>
@@ -9115,7 +9184,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>41</v>
       </c>
@@ -9147,7 +9216,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>41</v>
       </c>
@@ -9179,7 +9248,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>45</v>
       </c>
@@ -9211,7 +9280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>45</v>
       </c>
@@ -9243,7 +9312,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>45</v>
       </c>
@@ -9275,7 +9344,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>45</v>
       </c>
@@ -9307,7 +9376,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>45</v>
       </c>
@@ -9339,7 +9408,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>45</v>
       </c>
@@ -9371,7 +9440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>45</v>
       </c>
@@ -9403,7 +9472,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>45</v>
       </c>
@@ -9435,7 +9504,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>45</v>
       </c>
@@ -9467,7 +9536,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>46</v>
       </c>
@@ -9499,7 +9568,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>46</v>
       </c>
@@ -9531,7 +9600,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>46</v>
       </c>
@@ -9563,7 +9632,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>46</v>
       </c>
@@ -9595,7 +9664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>46</v>
       </c>
@@ -9627,7 +9696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>46</v>
       </c>
@@ -9659,7 +9728,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>46</v>
       </c>
@@ -9691,7 +9760,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>46</v>
       </c>
@@ -9723,7 +9792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>46</v>
       </c>
@@ -9755,7 +9824,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>47</v>
       </c>
@@ -9787,7 +9856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>47</v>
       </c>
@@ -9819,7 +9888,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>47</v>
       </c>
@@ -9851,7 +9920,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>47</v>
       </c>
@@ -9883,7 +9952,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>47</v>
       </c>
@@ -9915,7 +9984,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>47</v>
       </c>
@@ -9947,7 +10016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>47</v>
       </c>
@@ -9979,7 +10048,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>47</v>
       </c>
@@ -10011,7 +10080,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>47</v>
       </c>
@@ -10043,7 +10112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>48</v>
       </c>
@@ -10075,7 +10144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>48</v>
       </c>
@@ -10107,7 +10176,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>48</v>
       </c>
@@ -10139,7 +10208,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>48</v>
       </c>
@@ -10171,7 +10240,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>48</v>
       </c>
@@ -10203,7 +10272,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>48</v>
       </c>
@@ -10235,7 +10304,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>48</v>
       </c>
@@ -10267,7 +10336,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>48</v>
       </c>
@@ -10299,7 +10368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>48</v>
       </c>
@@ -10331,7 +10400,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>49</v>
       </c>
@@ -10363,7 +10432,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>49</v>
       </c>
@@ -10395,7 +10464,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>49</v>
       </c>
@@ -10427,7 +10496,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>49</v>
       </c>
@@ -10459,7 +10528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>49</v>
       </c>
@@ -10491,7 +10560,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>49</v>
       </c>
@@ -10523,7 +10592,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>49</v>
       </c>
@@ -10555,7 +10624,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>49</v>
       </c>
@@ -10587,7 +10656,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>49</v>
       </c>
@@ -10619,7 +10688,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>50</v>
       </c>
@@ -10651,7 +10720,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>50</v>
       </c>
@@ -10683,7 +10752,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>50</v>
       </c>
@@ -10715,7 +10784,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>50</v>
       </c>
@@ -10747,7 +10816,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>50</v>
       </c>
@@ -10779,7 +10848,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>50</v>
       </c>
@@ -10811,7 +10880,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>50</v>
       </c>
@@ -10843,7 +10912,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>50</v>
       </c>
@@ -10875,7 +10944,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>50</v>
       </c>
@@ -10907,7 +10976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>51</v>
       </c>
@@ -10939,7 +11008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>51</v>
       </c>
@@ -10971,7 +11040,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>51</v>
       </c>
@@ -11003,7 +11072,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>51</v>
       </c>
@@ -11035,7 +11104,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>51</v>
       </c>
@@ -11067,7 +11136,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>51</v>
       </c>
@@ -11099,7 +11168,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>51</v>
       </c>
@@ -11131,7 +11200,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>51</v>
       </c>
@@ -11163,7 +11232,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>51</v>
       </c>
@@ -11195,7 +11264,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>53</v>
       </c>
@@ -11227,7 +11296,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>53</v>
       </c>
@@ -11259,7 +11328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>53</v>
       </c>
@@ -11291,7 +11360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>53</v>
       </c>
@@ -11323,7 +11392,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>53</v>
       </c>
@@ -11355,7 +11424,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>53</v>
       </c>
@@ -11387,7 +11456,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>53</v>
       </c>
@@ -11419,7 +11488,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>53</v>
       </c>
@@ -11451,7 +11520,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>53</v>
       </c>
@@ -11483,7 +11552,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>54</v>
       </c>
@@ -11515,7 +11584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>54</v>
       </c>
@@ -11547,7 +11616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>54</v>
       </c>
@@ -11579,7 +11648,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>54</v>
       </c>
@@ -11611,7 +11680,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>54</v>
       </c>
@@ -11643,7 +11712,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>54</v>
       </c>
@@ -11675,7 +11744,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>54</v>
       </c>
@@ -11707,7 +11776,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>54</v>
       </c>
@@ -11739,7 +11808,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>54</v>
       </c>
@@ -11771,7 +11840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>55</v>
       </c>
@@ -11803,7 +11872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>55</v>
       </c>
@@ -11835,7 +11904,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>55</v>
       </c>
@@ -11867,7 +11936,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>55</v>
       </c>
@@ -11899,7 +11968,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>55</v>
       </c>
@@ -11931,7 +12000,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>55</v>
       </c>
@@ -11963,7 +12032,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>55</v>
       </c>
@@ -11995,7 +12064,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>55</v>
       </c>
@@ -12027,7 +12096,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>55</v>
       </c>
@@ -12059,7 +12128,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="305" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>16</v>
       </c>
@@ -12091,7 +12160,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="306" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>16</v>
       </c>
@@ -12123,7 +12192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="307" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>16</v>
       </c>
@@ -12155,7 +12224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="308" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>16</v>
       </c>
@@ -12187,7 +12256,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="309" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>16</v>
       </c>
@@ -12219,7 +12288,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="310" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>16</v>
       </c>
@@ -12251,7 +12320,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="311" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>16</v>
       </c>
@@ -12283,7 +12352,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="312" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>16</v>
       </c>
@@ -12315,7 +12384,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="313" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>16</v>
       </c>
@@ -12347,7 +12416,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
         <v>16</v>
       </c>
@@ -12379,7 +12448,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
         <v>16</v>
       </c>
@@ -12411,7 +12480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
         <v>16</v>
       </c>
@@ -12443,7 +12512,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
         <v>16</v>
       </c>
@@ -12475,7 +12544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
         <v>16</v>
       </c>
@@ -12507,7 +12576,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
         <v>16</v>
       </c>
@@ -12539,7 +12608,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
         <v>16</v>
       </c>
@@ -12571,7 +12640,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
         <v>16</v>
       </c>
@@ -12603,7 +12672,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
         <v>16</v>
       </c>
@@ -12635,7 +12704,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
         <v>16</v>
       </c>
@@ -12667,7 +12736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
         <v>16</v>
       </c>
@@ -12699,7 +12768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
         <v>16</v>
       </c>
@@ -12731,7 +12800,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
         <v>16</v>
       </c>
@@ -12763,7 +12832,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
         <v>16</v>
       </c>
@@ -12795,7 +12864,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
         <v>16</v>
       </c>
@@ -12827,7 +12896,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
         <v>16</v>
       </c>
@@ -12859,7 +12928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
         <v>16</v>
       </c>
@@ -12891,7 +12960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
         <v>16</v>
       </c>
@@ -12923,7 +12992,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="332" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>16</v>
       </c>
@@ -12955,7 +13024,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
         <v>16</v>
       </c>
@@ -12981,7 +13050,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
         <v>16</v>
       </c>
@@ -13007,7 +13076,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="335" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>16</v>
       </c>
@@ -13039,7 +13108,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
         <v>16</v>
       </c>
@@ -13065,7 +13134,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
         <v>16</v>
       </c>
@@ -13091,7 +13160,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="338" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>16</v>
       </c>
@@ -13123,7 +13192,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
         <v>16</v>
       </c>
@@ -13149,7 +13218,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
         <v>16</v>
       </c>
@@ -13175,7 +13244,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="341" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>16</v>
       </c>
@@ -13207,7 +13276,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
         <v>16</v>
       </c>
@@ -13233,7 +13302,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
         <v>16</v>
       </c>
@@ -13259,7 +13328,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="344" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>16</v>
       </c>
@@ -13291,7 +13360,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
         <v>16</v>
       </c>
@@ -13317,7 +13386,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
         <v>16</v>
       </c>
@@ -13343,7 +13412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="347" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>16</v>
       </c>
@@ -13375,7 +13444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
         <v>16</v>
       </c>
@@ -13401,7 +13470,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
         <v>16</v>
       </c>
@@ -13427,7 +13496,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="350" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>16</v>
       </c>
@@ -13459,7 +13528,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
         <v>16</v>
       </c>
@@ -13485,7 +13554,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
         <v>16</v>
       </c>
@@ -13511,7 +13580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="353" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>16</v>
       </c>
@@ -13543,7 +13612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>16</v>
       </c>
@@ -13569,7 +13638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>16</v>
       </c>
@@ -13595,7 +13664,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="356" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>16</v>
       </c>
@@ -13627,7 +13696,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>16</v>
       </c>
@@ -13653,7 +13722,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>16</v>
       </c>
@@ -13679,7 +13748,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>16</v>
       </c>
@@ -13711,7 +13780,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>16</v>
       </c>
@@ -13743,7 +13812,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>16</v>
       </c>
@@ -13775,7 +13844,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>16</v>
       </c>
@@ -13807,7 +13876,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>16</v>
       </c>
@@ -13839,7 +13908,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>16</v>
       </c>
@@ -13871,7 +13940,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>16</v>
       </c>
@@ -13903,7 +13972,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>16</v>
       </c>
@@ -13935,7 +14004,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>16</v>
       </c>
@@ -13967,7 +14036,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="368" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>16</v>
       </c>
@@ -13999,7 +14068,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="369" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>16</v>
       </c>
@@ -14031,7 +14100,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="370" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>16</v>
       </c>
@@ -14063,7 +14132,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="371" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>16</v>
       </c>
@@ -14095,7 +14164,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="372" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>16</v>
       </c>
@@ -14127,7 +14196,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="373" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>16</v>
       </c>
@@ -14159,7 +14228,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="374" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>16</v>
       </c>
@@ -14191,7 +14260,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="375" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>16</v>
       </c>
@@ -14223,7 +14292,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="376" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>16</v>
       </c>
@@ -14255,7 +14324,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="377" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>16</v>
       </c>
@@ -14287,7 +14356,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="378" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>16</v>
       </c>
@@ -14319,7 +14388,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="379" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>16</v>
       </c>
@@ -14351,7 +14420,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="380" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>16</v>
       </c>
@@ -14383,7 +14452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="381" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>16</v>
       </c>
@@ -14415,7 +14484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="382" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>16</v>
       </c>
@@ -14447,7 +14516,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="383" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>16</v>
       </c>
@@ -14479,7 +14548,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="384" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>16</v>
       </c>
@@ -14511,7 +14580,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="385" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>16</v>
       </c>
@@ -14543,7 +14612,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="386" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>16</v>
       </c>
@@ -14575,7 +14644,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="387" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>16</v>
       </c>
@@ -14607,7 +14676,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="388" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>16</v>
       </c>
@@ -14639,7 +14708,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="389" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>16</v>
       </c>
@@ -14671,7 +14740,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="390" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>16</v>
       </c>
@@ -14703,7 +14772,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="391" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>16</v>
       </c>
@@ -14735,7 +14804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="392" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>16</v>
       </c>
@@ -14767,7 +14836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="393" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>16</v>
       </c>
@@ -14799,7 +14868,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="394" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>16</v>
       </c>
@@ -14831,7 +14900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="395" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>16</v>
       </c>
@@ -14863,7 +14932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="396" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>16</v>
       </c>
@@ -14895,7 +14964,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="397" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>16</v>
       </c>
@@ -14927,7 +14996,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="398" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>16</v>
       </c>
@@ -14959,7 +15028,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="399" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>16</v>
       </c>
@@ -14991,7 +15060,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="400" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>16</v>
       </c>
@@ -15023,7 +15092,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="401" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>16</v>
       </c>
@@ -15055,7 +15124,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="402" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>16</v>
       </c>
@@ -15087,7 +15156,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="403" spans="1:15" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:15" ht="16.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>16</v>
       </c>
@@ -15119,7 +15188,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>16</v>
       </c>
@@ -15151,7 +15220,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>16</v>
       </c>
@@ -15183,7 +15252,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>16</v>
       </c>
@@ -15215,7 +15284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>16</v>
       </c>
@@ -15247,7 +15316,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>16</v>
       </c>
@@ -15279,7 +15348,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>16</v>
       </c>
@@ -15311,7 +15380,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>16</v>
       </c>
@@ -15343,7 +15412,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>16</v>
       </c>
@@ -15375,7 +15444,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>16</v>
       </c>
@@ -15407,7 +15476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>16</v>
       </c>
@@ -15427,7 +15496,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>16</v>
       </c>
@@ -15447,7 +15516,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>16</v>
       </c>
@@ -15467,7 +15536,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>16</v>
       </c>
@@ -15487,7 +15556,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>16</v>
       </c>
@@ -15507,7 +15576,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>16</v>
       </c>
@@ -15527,7 +15596,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>16</v>
       </c>
@@ -15547,7 +15616,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>16</v>
       </c>
@@ -15567,7 +15636,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>16</v>
       </c>
@@ -15587,7 +15656,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>16</v>
       </c>
@@ -15607,7 +15676,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>16</v>
       </c>
@@ -15627,7 +15696,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>16</v>
       </c>
@@ -15647,7 +15716,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>16</v>
       </c>
@@ -15667,7 +15736,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>16</v>
       </c>
@@ -15687,7 +15756,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>16</v>
       </c>
@@ -15707,7 +15776,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>16</v>
       </c>
@@ -15727,7 +15796,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>16</v>
       </c>
@@ -15747,7 +15816,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>16</v>
       </c>
@@ -15767,7 +15836,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>174</v>
       </c>
@@ -15802,7 +15871,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>175</v>
       </c>
@@ -15837,7 +15906,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>175</v>
       </c>
@@ -15872,7 +15941,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>174</v>
       </c>
@@ -15907,7 +15976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>174</v>
       </c>
@@ -15942,7 +16011,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>174</v>
       </c>
@@ -15977,7 +16046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>174</v>
       </c>
@@ -16012,7 +16081,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>174</v>
       </c>
@@ -16047,7 +16116,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>174</v>
       </c>
@@ -16082,7 +16151,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>174</v>
       </c>
@@ -16117,7 +16186,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>174</v>
       </c>
@@ -16152,7 +16221,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>174</v>
       </c>
@@ -16187,8 +16256,667 @@
         <v>22</v>
       </c>
     </row>
+    <row r="443" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A443" t="s">
+        <v>16</v>
+      </c>
+      <c r="B443" t="s">
+        <v>16</v>
+      </c>
+      <c r="C443">
+        <v>2010</v>
+      </c>
+      <c r="G443" t="s">
+        <v>34</v>
+      </c>
+      <c r="H443" t="s">
+        <v>18</v>
+      </c>
+      <c r="I443" t="s">
+        <v>38</v>
+      </c>
+      <c r="J443" t="s">
+        <v>23</v>
+      </c>
+      <c r="L443" t="s">
+        <v>21</v>
+      </c>
+      <c r="M443">
+        <v>0.25</v>
+      </c>
+      <c r="N443">
+        <v>0.25</v>
+      </c>
+      <c r="O443" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="444" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A444" t="s">
+        <v>16</v>
+      </c>
+      <c r="B444" t="s">
+        <v>16</v>
+      </c>
+      <c r="C444">
+        <v>2011</v>
+      </c>
+      <c r="G444" t="s">
+        <v>34</v>
+      </c>
+      <c r="H444" t="s">
+        <v>18</v>
+      </c>
+      <c r="I444" t="s">
+        <v>38</v>
+      </c>
+      <c r="J444" t="s">
+        <v>23</v>
+      </c>
+      <c r="L444" t="s">
+        <v>21</v>
+      </c>
+      <c r="M444">
+        <v>0.25</v>
+      </c>
+      <c r="N444">
+        <v>0.25</v>
+      </c>
+      <c r="O444" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="445" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A445" t="s">
+        <v>16</v>
+      </c>
+      <c r="B445" t="s">
+        <v>16</v>
+      </c>
+      <c r="C445">
+        <v>2012</v>
+      </c>
+      <c r="G445" t="s">
+        <v>34</v>
+      </c>
+      <c r="H445" t="s">
+        <v>18</v>
+      </c>
+      <c r="I445" t="s">
+        <v>38</v>
+      </c>
+      <c r="J445" t="s">
+        <v>23</v>
+      </c>
+      <c r="L445" t="s">
+        <v>21</v>
+      </c>
+      <c r="M445">
+        <v>0.25</v>
+      </c>
+      <c r="N445">
+        <v>0.25</v>
+      </c>
+      <c r="O445" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="446" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A446" t="s">
+        <v>16</v>
+      </c>
+      <c r="B446" t="s">
+        <v>16</v>
+      </c>
+      <c r="C446">
+        <v>2013</v>
+      </c>
+      <c r="G446" t="s">
+        <v>34</v>
+      </c>
+      <c r="H446" t="s">
+        <v>18</v>
+      </c>
+      <c r="I446" t="s">
+        <v>38</v>
+      </c>
+      <c r="J446" t="s">
+        <v>23</v>
+      </c>
+      <c r="L446" t="s">
+        <v>21</v>
+      </c>
+      <c r="M446">
+        <v>0.25</v>
+      </c>
+      <c r="N446">
+        <v>0.25</v>
+      </c>
+      <c r="O446" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="447" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A447" t="s">
+        <v>16</v>
+      </c>
+      <c r="B447" t="s">
+        <v>16</v>
+      </c>
+      <c r="C447">
+        <v>2014</v>
+      </c>
+      <c r="G447" t="s">
+        <v>34</v>
+      </c>
+      <c r="H447" t="s">
+        <v>18</v>
+      </c>
+      <c r="I447" t="s">
+        <v>38</v>
+      </c>
+      <c r="J447" t="s">
+        <v>23</v>
+      </c>
+      <c r="K447">
+        <v>4569.46</v>
+      </c>
+      <c r="L447" t="s">
+        <v>21</v>
+      </c>
+      <c r="M447">
+        <v>0.25</v>
+      </c>
+      <c r="N447">
+        <v>0.25</v>
+      </c>
+      <c r="O447" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="448" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A448" t="s">
+        <v>16</v>
+      </c>
+      <c r="B448" t="s">
+        <v>16</v>
+      </c>
+      <c r="C448">
+        <v>2015</v>
+      </c>
+      <c r="G448" t="s">
+        <v>34</v>
+      </c>
+      <c r="H448" t="s">
+        <v>18</v>
+      </c>
+      <c r="I448" t="s">
+        <v>38</v>
+      </c>
+      <c r="J448" t="s">
+        <v>23</v>
+      </c>
+      <c r="K448">
+        <v>3697.1</v>
+      </c>
+      <c r="L448" t="s">
+        <v>21</v>
+      </c>
+      <c r="M448">
+        <v>0.25</v>
+      </c>
+      <c r="N448">
+        <v>0.25</v>
+      </c>
+      <c r="O448" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="449" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A449" t="s">
+        <v>16</v>
+      </c>
+      <c r="B449" t="s">
+        <v>16</v>
+      </c>
+      <c r="C449">
+        <v>2016</v>
+      </c>
+      <c r="G449" t="s">
+        <v>34</v>
+      </c>
+      <c r="H449" t="s">
+        <v>18</v>
+      </c>
+      <c r="I449" t="s">
+        <v>38</v>
+      </c>
+      <c r="J449" t="s">
+        <v>23</v>
+      </c>
+      <c r="K449">
+        <v>4425.67</v>
+      </c>
+      <c r="L449" t="s">
+        <v>21</v>
+      </c>
+      <c r="M449">
+        <v>0.25</v>
+      </c>
+      <c r="N449">
+        <v>0.25</v>
+      </c>
+      <c r="O449" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="450" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A450" t="s">
+        <v>16</v>
+      </c>
+      <c r="B450" t="s">
+        <v>16</v>
+      </c>
+      <c r="C450">
+        <v>2017</v>
+      </c>
+      <c r="G450" t="s">
+        <v>34</v>
+      </c>
+      <c r="H450" t="s">
+        <v>18</v>
+      </c>
+      <c r="I450" t="s">
+        <v>38</v>
+      </c>
+      <c r="J450" t="s">
+        <v>23</v>
+      </c>
+      <c r="K450">
+        <v>3992.86</v>
+      </c>
+      <c r="L450" t="s">
+        <v>21</v>
+      </c>
+      <c r="M450">
+        <v>0.25</v>
+      </c>
+      <c r="N450">
+        <v>0.25</v>
+      </c>
+      <c r="O450" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="451" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A451" t="s">
+        <v>16</v>
+      </c>
+      <c r="B451" t="s">
+        <v>16</v>
+      </c>
+      <c r="C451">
+        <v>2018</v>
+      </c>
+      <c r="G451" t="s">
+        <v>34</v>
+      </c>
+      <c r="H451" t="s">
+        <v>18</v>
+      </c>
+      <c r="I451" t="s">
+        <v>38</v>
+      </c>
+      <c r="J451" t="s">
+        <v>23</v>
+      </c>
+      <c r="K451">
+        <v>4084</v>
+      </c>
+      <c r="L451" t="s">
+        <v>21</v>
+      </c>
+      <c r="M451">
+        <v>0.25</v>
+      </c>
+      <c r="N451">
+        <v>0.25</v>
+      </c>
+      <c r="O451" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="452" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A452" t="s">
+        <v>16</v>
+      </c>
+      <c r="B452" t="s">
+        <v>16</v>
+      </c>
+      <c r="C452">
+        <v>2010</v>
+      </c>
+      <c r="G452" t="s">
+        <v>34</v>
+      </c>
+      <c r="H452" t="s">
+        <v>18</v>
+      </c>
+      <c r="I452" t="s">
+        <v>38</v>
+      </c>
+      <c r="J452" t="s">
+        <v>193</v>
+      </c>
+      <c r="L452" t="s">
+        <v>21</v>
+      </c>
+      <c r="M452">
+        <v>0.25</v>
+      </c>
+      <c r="N452">
+        <v>0.25</v>
+      </c>
+      <c r="O452" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="453" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A453" t="s">
+        <v>16</v>
+      </c>
+      <c r="B453" t="s">
+        <v>16</v>
+      </c>
+      <c r="C453">
+        <v>2011</v>
+      </c>
+      <c r="G453" t="s">
+        <v>34</v>
+      </c>
+      <c r="H453" t="s">
+        <v>18</v>
+      </c>
+      <c r="I453" t="s">
+        <v>38</v>
+      </c>
+      <c r="J453" t="s">
+        <v>193</v>
+      </c>
+      <c r="K453">
+        <v>74.209999999999994</v>
+      </c>
+      <c r="L453" t="s">
+        <v>21</v>
+      </c>
+      <c r="M453">
+        <v>0.25</v>
+      </c>
+      <c r="N453">
+        <v>0.25</v>
+      </c>
+      <c r="O453" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="454" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A454" t="s">
+        <v>16</v>
+      </c>
+      <c r="B454" t="s">
+        <v>16</v>
+      </c>
+      <c r="C454">
+        <v>2012</v>
+      </c>
+      <c r="G454" t="s">
+        <v>34</v>
+      </c>
+      <c r="H454" t="s">
+        <v>18</v>
+      </c>
+      <c r="I454" t="s">
+        <v>38</v>
+      </c>
+      <c r="J454" t="s">
+        <v>193</v>
+      </c>
+      <c r="L454" t="s">
+        <v>21</v>
+      </c>
+      <c r="M454">
+        <v>0.25</v>
+      </c>
+      <c r="N454">
+        <v>0.25</v>
+      </c>
+      <c r="O454" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="455" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A455" t="s">
+        <v>16</v>
+      </c>
+      <c r="B455" t="s">
+        <v>16</v>
+      </c>
+      <c r="C455">
+        <v>2013</v>
+      </c>
+      <c r="G455" t="s">
+        <v>34</v>
+      </c>
+      <c r="H455" t="s">
+        <v>18</v>
+      </c>
+      <c r="I455" t="s">
+        <v>38</v>
+      </c>
+      <c r="J455" t="s">
+        <v>193</v>
+      </c>
+      <c r="L455" t="s">
+        <v>21</v>
+      </c>
+      <c r="M455">
+        <v>0.25</v>
+      </c>
+      <c r="N455">
+        <v>0.25</v>
+      </c>
+      <c r="O455" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="456" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A456" t="s">
+        <v>16</v>
+      </c>
+      <c r="B456" t="s">
+        <v>16</v>
+      </c>
+      <c r="C456">
+        <v>2014</v>
+      </c>
+      <c r="G456" t="s">
+        <v>34</v>
+      </c>
+      <c r="H456" t="s">
+        <v>18</v>
+      </c>
+      <c r="I456" t="s">
+        <v>38</v>
+      </c>
+      <c r="J456" t="s">
+        <v>193</v>
+      </c>
+      <c r="L456" t="s">
+        <v>21</v>
+      </c>
+      <c r="M456">
+        <v>0.25</v>
+      </c>
+      <c r="N456">
+        <v>0.25</v>
+      </c>
+      <c r="O456" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="457" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A457" t="s">
+        <v>16</v>
+      </c>
+      <c r="B457" t="s">
+        <v>16</v>
+      </c>
+      <c r="C457">
+        <v>2015</v>
+      </c>
+      <c r="G457" t="s">
+        <v>34</v>
+      </c>
+      <c r="H457" t="s">
+        <v>18</v>
+      </c>
+      <c r="I457" t="s">
+        <v>38</v>
+      </c>
+      <c r="J457" t="s">
+        <v>193</v>
+      </c>
+      <c r="L457" t="s">
+        <v>21</v>
+      </c>
+      <c r="M457">
+        <v>0.25</v>
+      </c>
+      <c r="N457">
+        <v>0.25</v>
+      </c>
+      <c r="O457" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="458" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A458" t="s">
+        <v>16</v>
+      </c>
+      <c r="B458" t="s">
+        <v>16</v>
+      </c>
+      <c r="C458">
+        <v>2016</v>
+      </c>
+      <c r="G458" t="s">
+        <v>34</v>
+      </c>
+      <c r="H458" t="s">
+        <v>18</v>
+      </c>
+      <c r="I458" t="s">
+        <v>38</v>
+      </c>
+      <c r="J458" t="s">
+        <v>193</v>
+      </c>
+      <c r="L458" t="s">
+        <v>21</v>
+      </c>
+      <c r="M458">
+        <v>0.25</v>
+      </c>
+      <c r="N458">
+        <v>0.25</v>
+      </c>
+      <c r="O458" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="459" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A459" t="s">
+        <v>16</v>
+      </c>
+      <c r="B459" t="s">
+        <v>16</v>
+      </c>
+      <c r="C459">
+        <v>2017</v>
+      </c>
+      <c r="G459" t="s">
+        <v>34</v>
+      </c>
+      <c r="H459" t="s">
+        <v>18</v>
+      </c>
+      <c r="I459" t="s">
+        <v>38</v>
+      </c>
+      <c r="J459" t="s">
+        <v>193</v>
+      </c>
+      <c r="L459" t="s">
+        <v>21</v>
+      </c>
+      <c r="M459">
+        <v>0.25</v>
+      </c>
+      <c r="N459">
+        <v>0.25</v>
+      </c>
+      <c r="O459" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="460" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A460" t="s">
+        <v>16</v>
+      </c>
+      <c r="B460" t="s">
+        <v>16</v>
+      </c>
+      <c r="C460">
+        <v>2018</v>
+      </c>
+      <c r="G460" t="s">
+        <v>34</v>
+      </c>
+      <c r="H460" t="s">
+        <v>18</v>
+      </c>
+      <c r="I460" t="s">
+        <v>38</v>
+      </c>
+      <c r="J460" t="s">
+        <v>193</v>
+      </c>
+      <c r="L460" t="s">
+        <v>21</v>
+      </c>
+      <c r="M460">
+        <v>0.25</v>
+      </c>
+      <c r="N460">
+        <v>0.25</v>
+      </c>
+      <c r="O460" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:P442"/>
+  <autoFilter ref="A1:P442">
+    <filterColumn colId="8">
+      <filters>
+        <filter val="Ext de carbon"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <filters>
+        <filter val="Gasolina Motor"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
@@ -16200,10 +16928,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R177"/>
+  <dimension ref="A1:R180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="M64" sqref="M64"/>
+    <sheetView tabSelected="1" topLeftCell="K29" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -18709,15 +19437,9 @@
         <v>16</v>
       </c>
       <c r="C55" s="4"/>
-      <c r="D55" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>80</v>
-      </c>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
       <c r="G55" t="s">
         <v>34</v>
       </c>
@@ -18730,11 +19452,11 @@
       <c r="J55" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="K55" t="s">
-        <v>32</v>
+      <c r="K55" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="M55" s="4">
-        <v>69323.686000000002</v>
+        <v>65207</v>
       </c>
       <c r="N55" s="4" t="s">
         <v>84</v>
@@ -18755,15 +19477,9 @@
         <v>16</v>
       </c>
       <c r="C56" s="4"/>
-      <c r="D56" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
       <c r="G56" t="s">
         <v>34</v>
       </c>
@@ -18776,8 +19492,8 @@
       <c r="J56" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="K56" t="s">
-        <v>32</v>
+      <c r="K56" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="M56" s="4">
         <v>3</v>
@@ -18786,10 +19502,10 @@
         <v>89</v>
       </c>
       <c r="O56" s="4">
-        <v>0.51800000000000002</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="P56" s="4">
-        <v>1.8120000000000001</v>
+        <v>1.5529999999999999</v>
       </c>
       <c r="Q56" s="4"/>
     </row>
@@ -18801,15 +19517,9 @@
         <v>16</v>
       </c>
       <c r="C57" s="4"/>
-      <c r="D57" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="F57" s="4" t="s">
-        <v>87</v>
-      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
       <c r="G57" t="s">
         <v>34</v>
       </c>
@@ -18822,8 +19532,8 @@
       <c r="J57" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="K57" t="s">
-        <v>32</v>
+      <c r="K57" s="13" t="s">
+        <v>193</v>
       </c>
       <c r="M57" s="4">
         <v>0.6</v>
@@ -18832,10 +19542,10 @@
         <v>91</v>
       </c>
       <c r="O57" s="4">
-        <v>0.51800000000000002</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="P57" s="4">
-        <v>1.8120000000000001</v>
+        <v>1.5529999999999999</v>
       </c>
       <c r="Q57" s="4"/>
     </row>
@@ -18857,10 +19567,10 @@
         <v>80</v>
       </c>
       <c r="G58" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I58" s="4" t="s">
         <v>82</v>
@@ -18869,10 +19579,10 @@
         <v>83</v>
       </c>
       <c r="K58" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M58" s="4">
-        <v>74193.482999999993</v>
+        <v>69323.686000000002</v>
       </c>
       <c r="N58" s="4" t="s">
         <v>84</v>
@@ -18903,10 +19613,10 @@
         <v>87</v>
       </c>
       <c r="G59" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I59" s="4" t="s">
         <v>82</v>
@@ -18915,7 +19625,7 @@
         <v>88</v>
       </c>
       <c r="K59" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M59" s="4">
         <v>3</v>
@@ -18949,10 +19659,10 @@
         <v>87</v>
       </c>
       <c r="G60" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="I60" s="4" t="s">
         <v>82</v>
@@ -18961,7 +19671,7 @@
         <v>90</v>
       </c>
       <c r="K60" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="M60" s="4">
         <v>0.6</v>
@@ -19007,10 +19717,10 @@
         <v>83</v>
       </c>
       <c r="K61" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M61" s="4">
-        <v>55539.086900000002</v>
+        <v>74193.482999999993</v>
       </c>
       <c r="N61" s="4" t="s">
         <v>84</v>
@@ -19053,19 +19763,19 @@
         <v>88</v>
       </c>
       <c r="K62" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M62" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N62" s="4" t="s">
         <v>89</v>
       </c>
       <c r="O62" s="4">
-        <v>0.54300000000000004</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="P62" s="4">
-        <v>1.5529999999999999</v>
+        <v>1.8120000000000001</v>
       </c>
       <c r="Q62" s="4"/>
     </row>
@@ -19099,83 +19809,90 @@
         <v>90</v>
       </c>
       <c r="K63" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M63" s="4">
-        <v>0.1</v>
+        <v>0.6</v>
       </c>
       <c r="N63" s="4" t="s">
         <v>91</v>
       </c>
       <c r="O63" s="4">
-        <v>0.54300000000000004</v>
+        <v>0.51800000000000002</v>
       </c>
       <c r="P63" s="4">
-        <v>1.5529999999999999</v>
+        <v>1.8120000000000001</v>
       </c>
       <c r="Q63" s="4"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>41</v>
-      </c>
-      <c r="B64" s="4"/>
+      <c r="A64" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C64" s="4"/>
       <c r="D64" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="E64" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="F64" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G64" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I64" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J64" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K64" t="s">
-        <v>44</v>
-      </c>
-      <c r="L64" s="4" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="M64" s="4">
-        <v>13.03</v>
+        <v>55539.086900000002</v>
       </c>
       <c r="N64" s="4" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="O64" s="4">
-        <v>0.75</v>
+        <v>2E-3</v>
       </c>
       <c r="P64" s="4">
-        <v>0.75</v>
+        <v>2E-3</v>
       </c>
       <c r="Q64" s="4"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>41</v>
-      </c>
-      <c r="B65" s="4"/>
+      <c r="A65" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C65" s="4"/>
       <c r="D65" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I65" s="4" t="s">
         <v>82</v>
@@ -19184,72 +19901,71 @@
         <v>88</v>
       </c>
       <c r="K65" t="s">
-        <v>44</v>
-      </c>
-      <c r="L65" s="4" t="s">
-        <v>104</v>
+        <v>23</v>
       </c>
       <c r="M65" s="4">
-        <v>3.9089999999999998</v>
+        <v>1</v>
       </c>
       <c r="N65" s="4" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="O65" s="4">
-        <v>0.5</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="P65" s="4">
-        <v>0.5</v>
+        <v>1.5529999999999999</v>
       </c>
       <c r="Q65" s="4"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>45</v>
-      </c>
-      <c r="B66" s="4"/>
+      <c r="A66" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="C66" s="4"/>
       <c r="D66" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>86</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="G66" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I66" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J66" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K66" t="s">
-        <v>44</v>
-      </c>
-      <c r="L66" s="4" t="s">
-        <v>102</v>
+        <v>23</v>
       </c>
       <c r="M66" s="4">
-        <v>7.17</v>
+        <v>0.1</v>
       </c>
       <c r="N66" s="4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="O66" s="4">
-        <v>0.75</v>
+        <v>0.54300000000000004</v>
       </c>
       <c r="P66" s="4">
-        <v>0.75</v>
+        <v>1.5529999999999999</v>
       </c>
       <c r="Q66" s="4"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -19275,25 +19991,25 @@
         <v>44</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M67" s="4">
-        <v>2.1509999999999998</v>
+        <v>13.03</v>
       </c>
       <c r="N67" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O67" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P67" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q67" s="4"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -19319,25 +20035,25 @@
         <v>44</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M68" s="4">
-        <v>7.17</v>
+        <v>3.9089999999999998</v>
       </c>
       <c r="N68" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O68" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="P68" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q68" s="4"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -19363,25 +20079,25 @@
         <v>44</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M69" s="4">
-        <v>2.1509999999999998</v>
+        <v>7.17</v>
       </c>
       <c r="N69" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O69" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P69" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q69" s="4"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -19407,25 +20123,25 @@
         <v>44</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M70" s="4">
-        <v>2.93</v>
+        <v>2.1509999999999998</v>
       </c>
       <c r="N70" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O70" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="P70" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q70" s="4"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -19451,25 +20167,25 @@
         <v>44</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M71" s="4">
-        <v>0.879</v>
+        <v>7.17</v>
       </c>
       <c r="N71" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O71" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P71" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q71" s="4"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -19495,25 +20211,25 @@
         <v>44</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M72" s="4">
-        <v>2.93</v>
+        <v>2.1509999999999998</v>
       </c>
       <c r="N72" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O72" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="P72" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q72" s="4"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -19539,25 +20255,25 @@
         <v>44</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M73" s="4">
-        <v>0.879</v>
+        <v>2.93</v>
       </c>
       <c r="N73" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O73" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P73" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q73" s="4"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -19583,25 +20299,25 @@
         <v>44</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M74" s="4">
-        <v>2.93</v>
+        <v>0.879</v>
       </c>
       <c r="N74" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O74" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="P74" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q74" s="4"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -19627,25 +20343,25 @@
         <v>44</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M75" s="4">
-        <v>0.879</v>
+        <v>2.93</v>
       </c>
       <c r="N75" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O75" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P75" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q75" s="4"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -19671,25 +20387,25 @@
         <v>44</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M76" s="4">
-        <v>1.95</v>
+        <v>0.879</v>
       </c>
       <c r="N76" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O76" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="P76" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q76" s="4"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -19715,36 +20431,33 @@
         <v>44</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M77" s="4">
-        <v>0.58499999999999996</v>
+        <v>2.93</v>
       </c>
       <c r="N77" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O77" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P77" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q77" s="4"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
-        <v>16</v>
+      <c r="A78" t="s">
+        <v>49</v>
       </c>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
       <c r="D78" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G78" t="s">
         <v>42</v>
@@ -19756,42 +20469,39 @@
         <v>82</v>
       </c>
       <c r="J78" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K78" t="s">
         <v>44</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M78" s="4">
-        <v>7.6999999999999999E-2</v>
+        <v>0.879</v>
       </c>
       <c r="N78" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O78" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="P78" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q78" s="4"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
-        <v>16</v>
+      <c r="A79" t="s">
+        <v>50</v>
       </c>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
       <c r="D79" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="G79" t="s">
         <v>42</v>
@@ -19803,31 +20513,31 @@
         <v>82</v>
       </c>
       <c r="J79" s="4" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K79" t="s">
         <v>44</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M79" s="4">
-        <v>1.7999999999999999E-2</v>
+        <v>1.95</v>
       </c>
       <c r="N79" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="O79" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P79" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q79" s="4"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A80" s="5" t="s">
-        <v>51</v>
+      <c r="A80" t="s">
+        <v>50</v>
       </c>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -19850,36 +20560,39 @@
         <v>88</v>
       </c>
       <c r="K80" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M80" s="4">
-        <v>0.89</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="N80" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O80" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P80" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q80" s="4"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A81" s="5" t="s">
-        <v>51</v>
+      <c r="A81" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
       <c r="D81" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G81" t="s">
         <v>42</v>
@@ -19891,39 +20604,42 @@
         <v>82</v>
       </c>
       <c r="J81" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K81" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M81" s="4">
-        <v>0.26700000000000002</v>
+        <v>7.6999999999999999E-2</v>
       </c>
       <c r="N81" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O81" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="P81" s="4">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="Q81" s="4"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A82" s="5" t="s">
-        <v>53</v>
+      <c r="A82" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
       <c r="D82" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="G82" t="s">
         <v>42</v>
@@ -19935,31 +20651,31 @@
         <v>82</v>
       </c>
       <c r="J82" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K82" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M82" s="4">
-        <v>0.89</v>
+        <v>1.7999999999999999E-2</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="O82" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P82" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q82" s="4"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -19985,25 +20701,25 @@
         <v>52</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M83" s="4">
-        <v>0.26700000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="N83" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O83" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P83" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q83" s="4"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84" s="5" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -20029,25 +20745,25 @@
         <v>52</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M84" s="4">
-        <v>0.4</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="N84" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O84" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P84" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q84" s="4"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -20073,25 +20789,25 @@
         <v>52</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M85" s="4">
-        <v>0.12</v>
+        <v>0.89</v>
       </c>
       <c r="N85" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O85" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P85" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q85" s="4"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -20117,25 +20833,25 @@
         <v>52</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M86" s="4">
-        <v>0.59</v>
+        <v>0.26700000000000002</v>
       </c>
       <c r="N86" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O86" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="P86" s="4">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="Q86" s="4"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -20161,160 +20877,151 @@
         <v>52</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M87" s="4">
-        <v>0.17699999999999999</v>
+        <v>0.4</v>
       </c>
       <c r="N87" s="4" t="s">
         <v>103</v>
       </c>
       <c r="O87" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P87" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="Q87" s="4"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A88" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" s="4"/>
       <c r="C88" s="4"/>
       <c r="D88" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E88" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G88" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I88" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J88" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K88" s="4" t="s">
-        <v>109</v>
+        <v>88</v>
+      </c>
+      <c r="K88" t="s">
+        <v>52</v>
+      </c>
+      <c r="L88" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="M88" s="4">
-        <v>1.125E-4</v>
+        <v>0.12</v>
       </c>
       <c r="N88" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O88" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="P88" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q88" s="4"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B89" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A89" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B89" s="4"/>
       <c r="C89" s="4"/>
       <c r="D89" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E89" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G89" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I89" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J89" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K89" s="4" t="s">
-        <v>111</v>
+        <v>88</v>
+      </c>
+      <c r="K89" t="s">
+        <v>52</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="M89" s="4">
-        <v>2.3E-6</v>
+        <v>0.59</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O89" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="P89" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q89" s="4"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A90" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="A90" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B90" s="4"/>
       <c r="C90" s="4"/>
       <c r="D90" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="G90" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J90" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K90" s="4" t="s">
-        <v>109</v>
+        <v>88</v>
+      </c>
+      <c r="K90" t="s">
+        <v>52</v>
+      </c>
+      <c r="L90" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="M90" s="4">
-        <v>2.9499999999999999E-5</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O90" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="P90" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="Q90" s="4"/>
     </row>
@@ -20339,7 +21046,7 @@
         <v>56</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>82</v>
@@ -20348,19 +21055,19 @@
         <v>83</v>
       </c>
       <c r="K91" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M91" s="4">
-        <v>8.9999999999999998E-4</v>
+        <v>1.125E-4</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O91" s="4">
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
       <c r="P91" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="Q91" s="4"/>
     </row>
@@ -20385,7 +21092,7 @@
         <v>56</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>82</v>
@@ -20394,19 +21101,22 @@
         <v>83</v>
       </c>
       <c r="K92" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="L92" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="M92" s="4">
-        <v>7.9500000000000001E-2</v>
+        <v>2.3E-6</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="O92" s="4">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="P92" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q92" s="4"/>
     </row>
@@ -20440,19 +21150,19 @@
         <v>83</v>
       </c>
       <c r="K93" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="M93" s="4">
-        <v>1.6949999999999999E-5</v>
+        <v>2.9499999999999999E-5</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="O93" s="4">
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
       <c r="P93" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="Q93" s="4"/>
     </row>
@@ -20477,7 +21187,7 @@
         <v>56</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I94" s="4" t="s">
         <v>82</v>
@@ -20486,19 +21196,19 @@
         <v>83</v>
       </c>
       <c r="K94" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M94" s="4">
-        <v>0</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="O94" s="4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="P94" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q94" s="4"/>
     </row>
@@ -20523,7 +21233,7 @@
         <v>56</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I95" s="4" t="s">
         <v>82</v>
@@ -20532,19 +21242,19 @@
         <v>83</v>
       </c>
       <c r="K95" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M95" s="4">
-        <v>2.1500550000000001E-3</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="O95" s="4">
-        <v>0.75</v>
+        <v>0.125</v>
       </c>
       <c r="P95" s="4">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="Q95" s="4"/>
     </row>
@@ -20569,7 +21279,7 @@
         <v>56</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I96" s="4" t="s">
         <v>82</v>
@@ -20578,22 +21288,19 @@
         <v>83</v>
       </c>
       <c r="K96" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L96" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M96" s="4">
-        <v>4.2999999999999999E-4</v>
+        <v>1.6949999999999999E-5</v>
       </c>
       <c r="N96" s="4" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="O96" s="4">
-        <v>0.5</v>
+        <v>0.125</v>
       </c>
       <c r="P96" s="4">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="Q96" s="4"/>
     </row>
@@ -20627,22 +21334,19 @@
         <v>83</v>
       </c>
       <c r="K97" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L97" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="M97" s="4">
-        <v>4.8999999999999997E-7</v>
+        <v>0</v>
       </c>
       <c r="N97" s="4" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="O97" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P97" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q97" s="4"/>
     </row>
@@ -20676,19 +21380,19 @@
         <v>83</v>
       </c>
       <c r="K98" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M98" s="4">
-        <v>0</v>
+        <v>2.1500550000000001E-3</v>
       </c>
       <c r="N98" s="4" t="s">
         <v>110</v>
       </c>
       <c r="O98" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="P98" s="4">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="Q98" s="4"/>
     </row>
@@ -20722,19 +21426,22 @@
         <v>83</v>
       </c>
       <c r="K99" s="4" t="s">
-        <v>127</v>
+        <v>111</v>
+      </c>
+      <c r="L99" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="M99" s="4">
-        <v>0</v>
+        <v>4.2999999999999999E-4</v>
       </c>
       <c r="N99" s="4" t="s">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="O99" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P99" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q99" s="4"/>
     </row>
@@ -20759,28 +21466,31 @@
         <v>56</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I100" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K100" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="L100" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="M100" s="4">
-        <v>8.5499999999999997E-4</v>
+        <v>4.8999999999999997E-7</v>
       </c>
       <c r="N100" s="4" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="O100" s="4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="P100" s="4">
-        <v>0.75</v>
+        <v>2</v>
       </c>
       <c r="Q100" s="4"/>
     </row>
@@ -20805,31 +21515,28 @@
         <v>56</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I101" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J101" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K101" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L101" s="4" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="M101" s="4">
-        <v>2.5000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="O101" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P101" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q101" s="4"/>
     </row>
@@ -20854,28 +21561,28 @@
         <v>56</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I102" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J102" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K102" s="4" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="M102" s="4">
-        <v>7.6000000000000003E-7</v>
+        <v>0</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="O102" s="4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="P102" s="4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q102" s="4"/>
     </row>
@@ -20900,7 +21607,7 @@
         <v>56</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I103" s="4" t="s">
         <v>82</v>
@@ -20909,19 +21616,19 @@
         <v>88</v>
       </c>
       <c r="K103" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M103" s="4">
-        <v>2.965E-4</v>
+        <v>8.5499999999999997E-4</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O103" s="4">
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
       <c r="P103" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="Q103" s="4"/>
     </row>
@@ -20946,7 +21653,7 @@
         <v>56</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>82</v>
@@ -20955,19 +21662,22 @@
         <v>88</v>
       </c>
       <c r="K104" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="L104" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="M104" s="4">
-        <v>4.505E-4</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="O104" s="4">
-        <v>0.125</v>
+        <v>0.5</v>
       </c>
       <c r="P104" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="Q104" s="4"/>
     </row>
@@ -21001,19 +21711,19 @@
         <v>88</v>
       </c>
       <c r="K105" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="M105" s="4">
-        <v>9.5500000000000001E-4</v>
+        <v>7.6000000000000003E-7</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="O105" s="4">
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
       <c r="P105" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="Q105" s="4"/>
     </row>
@@ -21038,7 +21748,7 @@
         <v>56</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I106" s="4" t="s">
         <v>82</v>
@@ -21047,19 +21757,19 @@
         <v>88</v>
       </c>
       <c r="K106" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M106" s="4">
-        <v>0</v>
+        <v>2.965E-4</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O106" s="4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="P106" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q106" s="4"/>
     </row>
@@ -21084,7 +21794,7 @@
         <v>56</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I107" s="4" t="s">
         <v>82</v>
@@ -21093,19 +21803,19 @@
         <v>88</v>
       </c>
       <c r="K107" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M107" s="4">
-        <v>1.0199700000000001E-4</v>
+        <v>4.505E-4</v>
       </c>
       <c r="N107" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="O107" s="4">
-        <v>0.75</v>
+        <v>0.125</v>
       </c>
       <c r="P107" s="4">
-        <v>0.75</v>
+        <v>8</v>
       </c>
       <c r="Q107" s="4"/>
     </row>
@@ -21130,7 +21840,7 @@
         <v>56</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I108" s="4" t="s">
         <v>82</v>
@@ -21139,22 +21849,19 @@
         <v>88</v>
       </c>
       <c r="K108" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L108" s="4" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="M108" s="4">
-        <v>0</v>
+        <v>9.5500000000000001E-4</v>
       </c>
       <c r="N108" s="4" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="O108" s="4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="P108" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q108" s="4"/>
     </row>
@@ -21188,22 +21895,19 @@
         <v>88</v>
       </c>
       <c r="K109" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L109" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="M109" s="4">
-        <v>5.4E-6</v>
+        <v>0</v>
       </c>
       <c r="N109" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="O109" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="P109" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q109" s="4"/>
     </row>
@@ -21237,19 +21941,19 @@
         <v>88</v>
       </c>
       <c r="K110" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M110" s="4">
-        <v>2.1800000000000001E-5</v>
+        <v>1.0199700000000001E-4</v>
       </c>
       <c r="N110" s="4" t="s">
         <v>128</v>
       </c>
       <c r="O110" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="P110" s="4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="Q110" s="4"/>
     </row>
@@ -21283,13 +21987,16 @@
         <v>88</v>
       </c>
       <c r="K111" s="4" t="s">
-        <v>127</v>
+        <v>111</v>
+      </c>
+      <c r="L111" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="M111" s="4">
         <v>0</v>
       </c>
       <c r="N111" s="4" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="O111" s="4">
         <v>0</v>
@@ -21320,28 +22027,31 @@
         <v>56</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I112" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J112" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K112" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
+      </c>
+      <c r="L112" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="M112" s="4">
-        <v>0</v>
+        <v>5.4E-6</v>
       </c>
       <c r="N112" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O112" s="4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="P112" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q112" s="4"/>
     </row>
@@ -21366,31 +22076,28 @@
         <v>56</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I113" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K113" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L113" s="4" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="M113" s="4">
-        <v>0</v>
+        <v>2.1800000000000001E-5</v>
       </c>
       <c r="N113" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O113" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P113" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q113" s="4"/>
     </row>
@@ -21415,28 +22122,28 @@
         <v>56</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I114" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K114" s="4" t="s">
-        <v>109</v>
+        <v>127</v>
       </c>
       <c r="M114" s="4">
-        <v>2.5000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="N114" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="O114" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P114" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q114" s="4"/>
     </row>
@@ -21461,7 +22168,7 @@
         <v>56</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I115" s="4" t="s">
         <v>82</v>
@@ -21470,13 +22177,13 @@
         <v>90</v>
       </c>
       <c r="K115" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="M115" s="4">
         <v>0</v>
       </c>
       <c r="N115" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O115" s="4">
         <v>0</v>
@@ -21507,7 +22214,7 @@
         <v>56</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I116" s="4" t="s">
         <v>82</v>
@@ -21516,19 +22223,22 @@
         <v>90</v>
       </c>
       <c r="K116" s="4" t="s">
-        <v>116</v>
+        <v>111</v>
+      </c>
+      <c r="L116" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="M116" s="4">
-        <v>5.8400000000000004E-7</v>
+        <v>0</v>
       </c>
       <c r="N116" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="O116" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P116" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q116" s="4"/>
     </row>
@@ -21562,19 +22272,19 @@
         <v>90</v>
       </c>
       <c r="K117" s="4" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="M117" s="4">
-        <v>0</v>
+        <v>2.5000000000000001E-5</v>
       </c>
       <c r="N117" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="O117" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P117" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q117" s="4"/>
     </row>
@@ -21599,7 +22309,7 @@
         <v>56</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I118" s="4" t="s">
         <v>82</v>
@@ -21608,13 +22318,13 @@
         <v>90</v>
       </c>
       <c r="K118" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M118" s="4">
         <v>0</v>
       </c>
       <c r="N118" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O118" s="4">
         <v>0</v>
@@ -21645,7 +22355,7 @@
         <v>56</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I119" s="4" t="s">
         <v>82</v>
@@ -21654,19 +22364,19 @@
         <v>90</v>
       </c>
       <c r="K119" s="4" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="M119" s="4">
-        <v>0</v>
+        <v>5.8400000000000004E-7</v>
       </c>
       <c r="N119" s="4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="O119" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P119" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q119" s="4"/>
     </row>
@@ -21691,7 +22401,7 @@
         <v>56</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I120" s="4" t="s">
         <v>82</v>
@@ -21700,22 +22410,19 @@
         <v>90</v>
       </c>
       <c r="K120" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L120" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="M120" s="6">
-        <v>2.1999999999999998E-9</v>
+        <v>117</v>
+      </c>
+      <c r="M120" s="4">
+        <v>0</v>
       </c>
       <c r="N120" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="O120" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P120" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q120" s="4"/>
     </row>
@@ -21749,16 +22456,13 @@
         <v>90</v>
       </c>
       <c r="K121" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="L121" s="4" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="M121" s="4">
         <v>0</v>
       </c>
       <c r="N121" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O121" s="4">
         <v>0</v>
@@ -21798,7 +22502,7 @@
         <v>90</v>
       </c>
       <c r="K122" s="4" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="M122" s="4">
         <v>0</v>
@@ -21844,19 +22548,22 @@
         <v>90</v>
       </c>
       <c r="K123" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="M123" s="4">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="L123" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M123" s="6">
+        <v>2.1999999999999998E-9</v>
       </c>
       <c r="N123" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="O123" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P123" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q123" s="4"/>
     </row>
@@ -21878,34 +22585,34 @@
         <v>107</v>
       </c>
       <c r="G124" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I124" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J124" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K124" s="4" t="s">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="L124" s="4" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="M124" s="4">
-        <v>0.1065</v>
+        <v>0</v>
       </c>
       <c r="N124" s="4" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="O124" s="4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P124" s="4">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Q124" s="4"/>
     </row>
@@ -21927,31 +22634,31 @@
         <v>107</v>
       </c>
       <c r="G125" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I125" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J125" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K125" s="4" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="M125" s="4">
-        <v>5.2000000000000002E-6</v>
+        <v>0</v>
       </c>
       <c r="N125" s="4" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="O125" s="4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P125" s="4">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Q125" s="4"/>
     </row>
@@ -21973,31 +22680,31 @@
         <v>107</v>
       </c>
       <c r="G126" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I126" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J126" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="K126" s="4" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="M126" s="4">
-        <v>1.4E-3</v>
+        <v>0</v>
       </c>
       <c r="N126" s="4" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="O126" s="4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="P126" s="4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q126" s="4"/>
     </row>
@@ -22022,7 +22729,7 @@
         <v>66</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I127" s="4" t="s">
         <v>82</v>
@@ -22037,16 +22744,16 @@
         <v>139</v>
       </c>
       <c r="M127" s="4">
-        <v>2.15E-3</v>
+        <v>0.1065</v>
       </c>
       <c r="N127" s="4" t="s">
         <v>140</v>
       </c>
       <c r="O127" s="4">
-        <v>0.75</v>
+        <v>0.4</v>
       </c>
       <c r="P127" s="4">
-        <v>0.75</v>
+        <v>2.5</v>
       </c>
       <c r="Q127" s="4"/>
     </row>
@@ -22071,7 +22778,7 @@
         <v>66</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I128" s="4" t="s">
         <v>82</v>
@@ -22080,19 +22787,19 @@
         <v>83</v>
       </c>
       <c r="K128" s="4" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="M128" s="4">
-        <v>8.9999999999999998E-4</v>
+        <v>5.2000000000000002E-6</v>
       </c>
       <c r="N128" s="4" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="O128" s="4">
-        <v>0.125</v>
+        <v>0.4</v>
       </c>
       <c r="P128" s="4">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="Q128" s="4"/>
     </row>
@@ -22126,19 +22833,19 @@
         <v>83</v>
       </c>
       <c r="K129" s="4" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="M129" s="4">
-        <v>7.9500000000000001E-2</v>
+        <v>1.4E-3</v>
       </c>
       <c r="N129" s="4" t="s">
-        <v>115</v>
+        <v>144</v>
       </c>
       <c r="O129" s="4">
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
       <c r="P129" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="Q129" s="4"/>
     </row>
@@ -22172,19 +22879,22 @@
         <v>83</v>
       </c>
       <c r="K130" s="4" t="s">
-        <v>117</v>
+        <v>138</v>
+      </c>
+      <c r="L130" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="M130" s="4">
-        <v>1.6949999999999999E-5</v>
+        <v>2.15E-3</v>
       </c>
       <c r="N130" s="4" t="s">
-        <v>118</v>
+        <v>140</v>
       </c>
       <c r="O130" s="4">
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
       <c r="P130" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="Q130" s="4"/>
     </row>
@@ -22209,7 +22919,7 @@
         <v>66</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I131" s="4" t="s">
         <v>82</v>
@@ -22218,19 +22928,19 @@
         <v>83</v>
       </c>
       <c r="K131" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M131" s="4">
-        <v>0</v>
+        <v>8.9999999999999998E-4</v>
       </c>
       <c r="N131" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="O131" s="4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="P131" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q131" s="4"/>
     </row>
@@ -22255,7 +22965,7 @@
         <v>66</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I132" s="4" t="s">
         <v>82</v>
@@ -22264,19 +22974,19 @@
         <v>83</v>
       </c>
       <c r="K132" s="4" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="M132" s="4">
-        <v>9.7E-5</v>
+        <v>7.9500000000000001E-2</v>
       </c>
       <c r="N132" s="4" t="s">
-        <v>144</v>
+        <v>115</v>
       </c>
       <c r="O132" s="4">
-        <v>0.4</v>
+        <v>0.125</v>
       </c>
       <c r="P132" s="4">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="Q132" s="4"/>
     </row>
@@ -22301,7 +23011,7 @@
         <v>66</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I133" s="4" t="s">
         <v>82</v>
@@ -22310,22 +23020,19 @@
         <v>83</v>
       </c>
       <c r="K133" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="L133" s="4" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="M133" s="4">
-        <v>2.5000000000000001E-4</v>
+        <v>1.6949999999999999E-5</v>
       </c>
       <c r="N133" s="4" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="O133" s="4">
-        <v>0.4</v>
+        <v>0.125</v>
       </c>
       <c r="P133" s="4">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="Q133" s="4"/>
     </row>
@@ -22359,22 +23066,19 @@
         <v>83</v>
       </c>
       <c r="K134" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L134" s="4" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="M134" s="4">
-        <v>1.44E-6</v>
+        <v>0</v>
       </c>
       <c r="N134" s="4" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="O134" s="4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P134" s="4">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Q134" s="4"/>
     </row>
@@ -22408,22 +23112,19 @@
         <v>83</v>
       </c>
       <c r="K135" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L135" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M135" s="4">
-        <v>1.85E-7</v>
+        <v>9.7E-5</v>
       </c>
       <c r="N135" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="O135" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P135" s="4">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q135" s="4"/>
     </row>
@@ -22457,19 +23158,22 @@
         <v>83</v>
       </c>
       <c r="K136" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
+      </c>
+      <c r="L136" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="M136" s="4">
-        <v>9.5500000000000004E-5</v>
+        <v>2.5000000000000001E-4</v>
       </c>
       <c r="N136" s="4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="O136" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P136" s="4">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q136" s="4"/>
     </row>
@@ -22494,31 +23198,31 @@
         <v>66</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I137" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J137" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K137" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L137" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M137" s="4">
-        <v>0</v>
+        <v>1.44E-6</v>
       </c>
       <c r="N137" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="O137" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P137" s="4">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q137" s="4"/>
     </row>
@@ -22543,28 +23247,31 @@
         <v>66</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I138" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J138" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K138" s="4" t="s">
         <v>141</v>
       </c>
+      <c r="L138" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="M138" s="4">
-        <v>3.9199999999999999E-4</v>
+        <v>1.85E-7</v>
       </c>
       <c r="N138" s="4" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="O138" s="4">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="P138" s="4">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="Q138" s="4"/>
     </row>
@@ -22589,28 +23296,28 @@
         <v>66</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I139" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J139" s="4" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K139" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M139" s="4">
-        <v>8.8000000000000004E-7</v>
+        <v>9.5500000000000004E-5</v>
       </c>
       <c r="N139" s="4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="O139" s="4">
-        <v>0.75</v>
+        <v>0.2</v>
       </c>
       <c r="P139" s="4">
-        <v>0.75</v>
+        <v>5</v>
       </c>
       <c r="Q139" s="4"/>
     </row>
@@ -22635,7 +23342,7 @@
         <v>66</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I140" s="4" t="s">
         <v>82</v>
@@ -22650,16 +23357,16 @@
         <v>139</v>
       </c>
       <c r="M140" s="4">
-        <v>1.3999999999999999E-6</v>
+        <v>0</v>
       </c>
       <c r="N140" s="4" t="s">
         <v>149</v>
       </c>
       <c r="O140" s="4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="P140" s="4">
-        <v>0.75</v>
+        <v>0</v>
       </c>
       <c r="Q140" s="4"/>
     </row>
@@ -22684,7 +23391,7 @@
         <v>66</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I141" s="4" t="s">
         <v>82</v>
@@ -22693,19 +23400,19 @@
         <v>88</v>
       </c>
       <c r="K141" s="4" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="M141" s="4">
-        <v>2.965E-4</v>
+        <v>3.9199999999999999E-4</v>
       </c>
       <c r="N141" s="4" t="s">
-        <v>129</v>
+        <v>150</v>
       </c>
       <c r="O141" s="4">
-        <v>0.125</v>
+        <v>0.4</v>
       </c>
       <c r="P141" s="4">
-        <v>8</v>
+        <v>2.5</v>
       </c>
       <c r="Q141" s="4"/>
     </row>
@@ -22739,19 +23446,19 @@
         <v>88</v>
       </c>
       <c r="K142" s="4" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="M142" s="4">
-        <v>4.505E-4</v>
+        <v>8.8000000000000004E-7</v>
       </c>
       <c r="N142" s="4" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="O142" s="4">
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
       <c r="P142" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="Q142" s="4"/>
     </row>
@@ -22785,19 +23492,22 @@
         <v>88</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>117</v>
+        <v>138</v>
+      </c>
+      <c r="L143" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="M143" s="4">
-        <v>9.5500000000000001E-4</v>
+        <v>1.3999999999999999E-6</v>
       </c>
       <c r="N143" s="4" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="O143" s="4">
-        <v>0.125</v>
+        <v>0.75</v>
       </c>
       <c r="P143" s="4">
-        <v>8</v>
+        <v>0.75</v>
       </c>
       <c r="Q143" s="4"/>
     </row>
@@ -22822,7 +23532,7 @@
         <v>66</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I144" s="4" t="s">
         <v>82</v>
@@ -22831,19 +23541,19 @@
         <v>88</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M144" s="4">
-        <v>0</v>
+        <v>2.965E-4</v>
       </c>
       <c r="N144" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="O144" s="4">
-        <v>0</v>
+        <v>0.125</v>
       </c>
       <c r="P144" s="4">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="Q144" s="4"/>
     </row>
@@ -22868,7 +23578,7 @@
         <v>66</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I145" s="4" t="s">
         <v>82</v>
@@ -22877,19 +23587,19 @@
         <v>88</v>
       </c>
       <c r="K145" s="4" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="M145" s="4">
-        <v>9.9936000000000001E-3</v>
+        <v>4.505E-4</v>
       </c>
       <c r="N145" s="4" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="O145" s="4">
-        <v>0.4</v>
+        <v>0.125</v>
       </c>
       <c r="P145" s="4">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="Q145" s="4"/>
     </row>
@@ -22914,7 +23624,7 @@
         <v>66</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I146" s="4" t="s">
         <v>82</v>
@@ -22923,22 +23633,19 @@
         <v>88</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="L146" s="4" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="M146" s="4">
-        <v>7.9000000000000001E-4</v>
+        <v>9.5500000000000001E-4</v>
       </c>
       <c r="N146" s="4" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="O146" s="4">
-        <v>0.4</v>
+        <v>0.125</v>
       </c>
       <c r="P146" s="4">
-        <v>2.5</v>
+        <v>8</v>
       </c>
       <c r="Q146" s="4"/>
     </row>
@@ -22972,22 +23679,19 @@
         <v>88</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L147" s="4" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="M147" s="4">
-        <v>6.3299999999999999E-4</v>
+        <v>0</v>
       </c>
       <c r="N147" s="4" t="s">
-        <v>150</v>
+        <v>131</v>
       </c>
       <c r="O147" s="4">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="P147" s="4">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="Q147" s="4"/>
     </row>
@@ -23021,22 +23725,19 @@
         <v>88</v>
       </c>
       <c r="K148" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L148" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M148" s="4">
-        <v>4.1499999999999999E-5</v>
+        <v>9.9936000000000001E-3</v>
       </c>
       <c r="N148" s="4" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O148" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P148" s="4">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q148" s="4"/>
     </row>
@@ -23070,19 +23771,22 @@
         <v>88</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>147</v>
+        <v>138</v>
+      </c>
+      <c r="L149" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="M149" s="4">
-        <v>1.8E-3</v>
+        <v>7.9000000000000001E-4</v>
       </c>
       <c r="N149" s="4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="O149" s="4">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="P149" s="4">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="Q149" s="4"/>
     </row>
@@ -23107,31 +23811,31 @@
         <v>66</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I150" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J150" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K150" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L150" s="4" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="M150" s="4">
-        <v>0</v>
+        <v>6.3299999999999999E-4</v>
       </c>
       <c r="N150" s="4" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="O150" s="4">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="P150" s="4">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="Q150" s="4"/>
     </row>
@@ -23156,28 +23860,31 @@
         <v>66</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="I151" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K151" s="4" t="s">
         <v>141</v>
       </c>
+      <c r="L151" s="4" t="s">
+        <v>146</v>
+      </c>
       <c r="M151" s="4">
-        <v>0</v>
+        <v>4.1499999999999999E-5</v>
       </c>
       <c r="N151" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="O151" s="4">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="P151" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q151" s="4"/>
     </row>
@@ -23202,28 +23909,28 @@
         <v>66</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="I152" s="4" t="s">
         <v>82</v>
       </c>
       <c r="J152" s="4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="M152" s="4">
-        <v>2.4999999999999999E-8</v>
+        <v>1.8E-3</v>
       </c>
       <c r="N152" s="4" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="O152" s="4">
-        <v>0.1</v>
+        <v>0.2</v>
       </c>
       <c r="P152" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="Q152" s="4"/>
     </row>
@@ -23248,7 +23955,7 @@
         <v>66</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I153" s="4" t="s">
         <v>82</v>
@@ -23262,17 +23969,17 @@
       <c r="L153" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="M153" s="6">
-        <v>2.9499999999999999E-8</v>
+      <c r="M153" s="4">
+        <v>0</v>
       </c>
       <c r="N153" s="4" t="s">
         <v>153</v>
       </c>
       <c r="O153" s="4">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="P153" s="4">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q153" s="4"/>
     </row>
@@ -23297,7 +24004,7 @@
         <v>66</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="I154" s="4" t="s">
         <v>82</v>
@@ -23306,13 +24013,13 @@
         <v>90</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>114</v>
+        <v>141</v>
       </c>
       <c r="M154" s="4">
         <v>0</v>
       </c>
       <c r="N154" s="4" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="O154" s="4">
         <v>0</v>
@@ -23352,13 +24059,13 @@
         <v>90</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="M155" s="4">
-        <v>5.8400000000000004E-7</v>
+        <v>2.4999999999999999E-8</v>
       </c>
       <c r="N155" s="4" t="s">
-        <v>134</v>
+        <v>155</v>
       </c>
       <c r="O155" s="4">
         <v>0.1</v>
@@ -23398,19 +24105,22 @@
         <v>90</v>
       </c>
       <c r="K156" s="4" t="s">
-        <v>117</v>
-      </c>
-      <c r="M156" s="4">
-        <v>0</v>
+        <v>138</v>
+      </c>
+      <c r="L156" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="M156" s="6">
+        <v>2.9499999999999999E-8</v>
       </c>
       <c r="N156" s="4" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="O156" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P156" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q156" s="4"/>
     </row>
@@ -23435,7 +24145,7 @@
         <v>66</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I157" s="4" t="s">
         <v>82</v>
@@ -23444,13 +24154,13 @@
         <v>90</v>
       </c>
       <c r="K157" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="M157" s="4">
         <v>0</v>
       </c>
       <c r="N157" s="4" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="O157" s="4">
         <v>0</v>
@@ -23481,7 +24191,7 @@
         <v>66</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I158" s="4" t="s">
         <v>82</v>
@@ -23490,19 +24200,19 @@
         <v>90</v>
       </c>
       <c r="K158" s="4" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="M158" s="4">
-        <v>0</v>
+        <v>5.8400000000000004E-7</v>
       </c>
       <c r="N158" s="4" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
       <c r="O158" s="4">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="P158" s="4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q158" s="4"/>
     </row>
@@ -23527,7 +24237,7 @@
         <v>66</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="I159" s="4" t="s">
         <v>82</v>
@@ -23536,16 +24246,13 @@
         <v>90</v>
       </c>
       <c r="K159" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="L159" s="4" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="M159" s="4">
         <v>0</v>
       </c>
       <c r="N159" s="4" t="s">
-        <v>153</v>
+        <v>135</v>
       </c>
       <c r="O159" s="4">
         <v>0</v>
@@ -23585,16 +24292,13 @@
         <v>90</v>
       </c>
       <c r="K160" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L160" s="4" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="M160" s="4">
         <v>0</v>
       </c>
       <c r="N160" s="4" t="s">
-        <v>154</v>
+        <v>136</v>
       </c>
       <c r="O160" s="4">
         <v>0</v>
@@ -23634,16 +24338,13 @@
         <v>90</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="L161" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M161" s="4">
         <v>0</v>
       </c>
       <c r="N161" s="4" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O161" s="4">
         <v>0</v>
@@ -23683,14 +24384,16 @@
         <v>90</v>
       </c>
       <c r="K162" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="L162" s="4"/>
+        <v>138</v>
+      </c>
+      <c r="L162" s="4" t="s">
+        <v>139</v>
+      </c>
       <c r="M162" s="4">
         <v>0</v>
       </c>
       <c r="N162" s="4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="O162" s="4">
         <v>0</v>
@@ -23707,39 +24410,47 @@
       <c r="B163" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D163" t="s">
+      <c r="C163" s="4"/>
+      <c r="D163" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E163" t="s">
+      <c r="E163" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F163" t="s">
-        <v>158</v>
+      <c r="F163" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="G163" t="s">
-        <v>73</v>
-      </c>
-      <c r="H163" t="s">
-        <v>159</v>
-      </c>
-      <c r="I163" t="s">
+        <v>66</v>
+      </c>
+      <c r="H163" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I163" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J163" t="s">
-        <v>83</v>
-      </c>
-      <c r="M163">
-        <v>0.95</v>
-      </c>
-      <c r="N163" t="s">
-        <v>160</v>
-      </c>
-      <c r="O163">
-        <v>0.3</v>
-      </c>
-      <c r="P163">
-        <v>0.3</v>
-      </c>
+      <c r="J163" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K163" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L163" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="M163" s="4">
+        <v>0</v>
+      </c>
+      <c r="N163" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="O163" s="4">
+        <v>0</v>
+      </c>
+      <c r="P163" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q163" s="4"/>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A164" s="4" t="s">
@@ -23748,36 +24459,47 @@
       <c r="B164" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D164" t="s">
+      <c r="C164" s="4"/>
+      <c r="D164" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E164" t="s">
+      <c r="E164" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F164" t="s">
-        <v>161</v>
+      <c r="F164" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="G164" t="s">
-        <v>73</v>
-      </c>
-      <c r="H164" t="s">
-        <v>162</v>
-      </c>
-      <c r="I164" t="s">
-        <v>163</v>
-      </c>
-      <c r="M164">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N164" t="s">
-        <v>164</v>
-      </c>
-      <c r="O164">
-        <v>0.1</v>
-      </c>
-      <c r="P164">
-        <v>0.1</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="H164" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I164" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J164" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K164" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="L164" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="M164" s="4">
+        <v>0</v>
+      </c>
+      <c r="N164" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="O164" s="4">
+        <v>0</v>
+      </c>
+      <c r="P164" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q164" s="4"/>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A165" s="4" t="s">
@@ -23786,39 +24508,45 @@
       <c r="B165" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="D165" t="s">
+      <c r="C165" s="4"/>
+      <c r="D165" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E165" t="s">
+      <c r="E165" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F165" t="s">
-        <v>165</v>
+      <c r="F165" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="G165" t="s">
-        <v>73</v>
-      </c>
-      <c r="H165" t="s">
-        <v>159</v>
-      </c>
-      <c r="I165" t="s">
+        <v>66</v>
+      </c>
+      <c r="H165" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="I165" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="J165" t="s">
-        <v>88</v>
-      </c>
-      <c r="M165">
-        <v>6</v>
-      </c>
-      <c r="N165" t="s">
-        <v>166</v>
-      </c>
-      <c r="O165">
-        <v>0.1</v>
-      </c>
-      <c r="P165">
-        <v>0.1</v>
-      </c>
+      <c r="J165" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K165" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="L165" s="4"/>
+      <c r="M165" s="4">
+        <v>0</v>
+      </c>
+      <c r="N165" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="O165" s="4">
+        <v>0</v>
+      </c>
+      <c r="P165" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q165" s="4"/>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A166" s="4" t="s">
@@ -23834,13 +24562,13 @@
         <v>86</v>
       </c>
       <c r="F166" t="s">
-        <v>161</v>
-      </c>
-      <c r="G166" s="7" t="s">
-        <v>167</v>
+        <v>158</v>
+      </c>
+      <c r="G166" t="s">
+        <v>73</v>
       </c>
       <c r="H166" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="I166" t="s">
         <v>82</v>
@@ -23849,16 +24577,16 @@
         <v>83</v>
       </c>
       <c r="M166">
-        <v>0.29399999999999998</v>
+        <v>0.95</v>
       </c>
       <c r="N166" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="O166">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="P166">
-        <v>0.2</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.25">
@@ -23875,25 +24603,22 @@
         <v>86</v>
       </c>
       <c r="F167" t="s">
-        <v>165</v>
-      </c>
-      <c r="G167" s="7" t="s">
-        <v>167</v>
+        <v>161</v>
+      </c>
+      <c r="G167" t="s">
+        <v>73</v>
       </c>
       <c r="H167" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="I167" t="s">
-        <v>82</v>
-      </c>
-      <c r="J167" t="s">
-        <v>88</v>
+        <v>163</v>
       </c>
       <c r="M167">
-        <v>2.2599999999999999E-2</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="N167" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O167">
         <v>0.1</v>
@@ -23910,31 +24635,37 @@
         <v>16</v>
       </c>
       <c r="D168" t="s">
-        <v>172</v>
-      </c>
-      <c r="G168" s="7" t="s">
-        <v>170</v>
+        <v>85</v>
+      </c>
+      <c r="E168" t="s">
+        <v>86</v>
+      </c>
+      <c r="F168" t="s">
+        <v>165</v>
+      </c>
+      <c r="G168" t="s">
+        <v>73</v>
       </c>
       <c r="H168" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="I168" t="s">
         <v>82</v>
       </c>
       <c r="J168" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="M168">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="N168" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="O168">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
       <c r="P168">
-        <v>0.05</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.25">
@@ -23944,45 +24675,39 @@
       <c r="B169" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C169" s="9"/>
-      <c r="D169" s="9" t="s">
+      <c r="D169" t="s">
         <v>85</v>
       </c>
-      <c r="E169" s="9" t="s">
+      <c r="E169" t="s">
         <v>86</v>
       </c>
-      <c r="F169" s="9" t="s">
-        <v>182</v>
+      <c r="F169" t="s">
+        <v>161</v>
       </c>
       <c r="G169" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H169" s="9" t="s">
-        <v>183</v>
+        <v>167</v>
+      </c>
+      <c r="H169" t="s">
+        <v>192</v>
       </c>
       <c r="I169" t="s">
         <v>82</v>
       </c>
-      <c r="J169" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="K169" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="L169" s="9"/>
-      <c r="M169" s="10">
-        <v>0.63</v>
-      </c>
-      <c r="N169" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="O169" s="12">
-        <v>0.89</v>
-      </c>
-      <c r="P169" s="12">
-        <v>1.06</v>
-      </c>
-      <c r="Q169" s="9"/>
+      <c r="J169" t="s">
+        <v>83</v>
+      </c>
+      <c r="M169">
+        <v>0.29399999999999998</v>
+      </c>
+      <c r="N169" t="s">
+        <v>169</v>
+      </c>
+      <c r="O169">
+        <v>0.5</v>
+      </c>
+      <c r="P169">
+        <v>0.2</v>
+      </c>
       <c r="R169" s="9"/>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.25">
@@ -23992,45 +24717,39 @@
       <c r="B170" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C170" s="9"/>
-      <c r="D170" s="9" t="s">
+      <c r="D170" t="s">
         <v>85</v>
       </c>
-      <c r="E170" s="9" t="s">
+      <c r="E170" t="s">
         <v>86</v>
       </c>
-      <c r="F170" s="9" t="s">
-        <v>182</v>
+      <c r="F170" t="s">
+        <v>165</v>
       </c>
       <c r="G170" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H170" s="9" t="s">
-        <v>183</v>
+        <v>167</v>
+      </c>
+      <c r="H170" t="s">
+        <v>192</v>
       </c>
       <c r="I170" t="s">
         <v>82</v>
       </c>
-      <c r="J170" s="9" t="s">
+      <c r="J170" t="s">
         <v>88</v>
       </c>
-      <c r="K170" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="L170" s="9"/>
-      <c r="M170" s="10">
-        <v>0.15</v>
-      </c>
-      <c r="N170" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="O170" s="12">
-        <v>1.33</v>
-      </c>
-      <c r="P170" s="12">
-        <v>6.33</v>
-      </c>
-      <c r="Q170" s="9"/>
+      <c r="M170">
+        <v>2.2599999999999999E-2</v>
+      </c>
+      <c r="N170" t="s">
+        <v>166</v>
+      </c>
+      <c r="O170">
+        <v>0.1</v>
+      </c>
+      <c r="P170">
+        <v>0.1</v>
+      </c>
       <c r="R170" s="9"/>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.25">
@@ -24040,45 +24759,33 @@
       <c r="B171" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C171" s="9"/>
-      <c r="D171" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E171" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F171" s="9" t="s">
-        <v>182</v>
+      <c r="D171" t="s">
+        <v>172</v>
       </c>
       <c r="G171" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H171" s="9" t="s">
-        <v>183</v>
+        <v>170</v>
+      </c>
+      <c r="H171" t="s">
+        <v>173</v>
       </c>
       <c r="I171" t="s">
         <v>82</v>
       </c>
-      <c r="J171" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="K171" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="L171" s="9"/>
-      <c r="M171" s="11">
-        <v>0.29499999999999998</v>
-      </c>
-      <c r="N171" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="O171" s="12">
-        <v>0.76</v>
-      </c>
-      <c r="P171" s="12">
-        <v>2.73</v>
-      </c>
-      <c r="Q171" s="9"/>
+      <c r="J171" t="s">
+        <v>83</v>
+      </c>
+      <c r="M171">
+        <v>6.5</v>
+      </c>
+      <c r="N171" t="s">
+        <v>169</v>
+      </c>
+      <c r="O171">
+        <v>0.05</v>
+      </c>
+      <c r="P171">
+        <v>0.05</v>
+      </c>
       <c r="R171" s="9"/>
     </row>
     <row r="172" spans="1:18" x14ac:dyDescent="0.25">
@@ -24108,23 +24815,23 @@
         <v>82</v>
       </c>
       <c r="J172" s="9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K172" s="9" t="s">
         <v>186</v>
       </c>
       <c r="L172" s="9"/>
       <c r="M172" s="10">
-        <v>44.9</v>
+        <v>0.63</v>
       </c>
       <c r="N172" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O172" s="12">
-        <v>0.74</v>
+        <v>0.89</v>
       </c>
       <c r="P172" s="12">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="Q172" s="9"/>
       <c r="R172" s="9"/>
@@ -24156,23 +24863,23 @@
         <v>82</v>
       </c>
       <c r="J173" s="9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K173" s="9" t="s">
         <v>188</v>
       </c>
       <c r="L173" s="9"/>
       <c r="M173" s="10">
-        <v>8.1</v>
+        <v>0.15</v>
       </c>
       <c r="N173" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O173" s="12">
-        <v>2.2799999999999998</v>
+        <v>1.33</v>
       </c>
       <c r="P173" s="12">
-        <v>6.2</v>
+        <v>6.33</v>
       </c>
       <c r="Q173" s="9"/>
       <c r="R173" s="9"/>
@@ -24204,116 +24911,257 @@
         <v>82</v>
       </c>
       <c r="J174" s="9" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K174" s="9" t="s">
         <v>187</v>
       </c>
       <c r="L174" s="9"/>
-      <c r="M174" s="10">
-        <v>39.1</v>
+      <c r="M174" s="11">
+        <v>0.29499999999999998</v>
       </c>
       <c r="N174" s="9" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="O174" s="12">
-        <v>0.7</v>
+        <v>0.76</v>
       </c>
       <c r="P174" s="12">
-        <v>0.5</v>
+        <v>2.73</v>
       </c>
       <c r="Q174" s="9"/>
       <c r="R174" s="9"/>
     </row>
     <row r="175" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
-        <v>174</v>
+      <c r="A175" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B175" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E175" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F175" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="G175" s="7" t="s">
         <v>176</v>
       </c>
       <c r="H175" s="9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I175" t="s">
-        <v>190</v>
+        <v>82</v>
+      </c>
+      <c r="J175" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="K175" s="9" t="s">
-        <v>179</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="L175" s="9"/>
       <c r="M175" s="10">
-        <v>985</v>
+        <v>44.9</v>
       </c>
       <c r="N175" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O175" s="12">
-        <v>0.1</v>
+        <v>0.74</v>
       </c>
       <c r="P175" s="12">
-        <v>0.1</v>
-      </c>
+        <v>1.02</v>
+      </c>
+      <c r="Q175" s="9"/>
     </row>
     <row r="176" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>175</v>
+      <c r="A176" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B176" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E176" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="G176" s="7" t="s">
         <v>176</v>
       </c>
       <c r="H176" s="9" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="I176" t="s">
-        <v>190</v>
+        <v>82</v>
+      </c>
+      <c r="J176" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="K176" s="9" t="s">
-        <v>180</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="L176" s="9"/>
       <c r="M176" s="10">
-        <v>1200</v>
+        <v>8.1</v>
       </c>
       <c r="N176" s="9" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="O176" s="12">
-        <v>0.1</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="P176" s="12">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A177" t="s">
-        <v>174</v>
+        <v>6.2</v>
+      </c>
+      <c r="Q176" s="9"/>
+    </row>
+    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A177" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B177" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E177" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F177" s="9" t="s">
+        <v>182</v>
       </c>
       <c r="G177" s="7" t="s">
         <v>176</v>
       </c>
       <c r="H177" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="I177" t="s">
+        <v>82</v>
+      </c>
+      <c r="J177" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K177" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="L177" s="9"/>
+      <c r="M177" s="10">
+        <v>39.1</v>
+      </c>
+      <c r="N177" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="O177" s="12">
+        <v>0.7</v>
+      </c>
+      <c r="P177" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="Q177" s="9"/>
+    </row>
+    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>174</v>
+      </c>
+      <c r="G178" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H178" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="I177" t="s">
+      <c r="I178" t="s">
         <v>190</v>
       </c>
-      <c r="K177" s="9" t="s">
+      <c r="K178" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="M178" s="10">
+        <v>985</v>
+      </c>
+      <c r="N178" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="O178" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="P178" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>175</v>
+      </c>
+      <c r="G179" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H179" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="I179" t="s">
+        <v>190</v>
+      </c>
+      <c r="K179" s="9" t="s">
+        <v>180</v>
+      </c>
+      <c r="M179" s="10">
+        <v>1200</v>
+      </c>
+      <c r="N179" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="O179" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="P179" s="12">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>174</v>
+      </c>
+      <c r="G180" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="H180" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="I180" t="s">
+        <v>190</v>
+      </c>
+      <c r="K180" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="M177" s="10">
+      <c r="M180" s="10">
         <v>446</v>
       </c>
-      <c r="N177" s="9" t="s">
+      <c r="N180" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="O177" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="P177" s="12">
+      <c r="O180" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="P180" s="12">
         <v>0.1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q162"/>
+  <autoFilter ref="A1:Q165"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
